--- a/files/annex_vi.xlsx
+++ b/files/annex_vi.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Name of Project: </t>
   </si>
   <si>
-    <t>Aid Effectiveness Project for ERD through ICT with Planning Division, Economic Relations Division and IMED of Ministry of Planning</t>
+    <t>4-Laning of Dhaka Chittagong National Highway Project.</t>
   </si>
   <si>
     <t xml:space="preserve">Total Investment: </t>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -161,9 +161,6 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,7 +459,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -514,7 +511,7 @@
       </c>
       <c r="B4"/>
       <c r="C4">
-        <v>2214</v>
+        <v>216838.41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -523,7 +520,7 @@
       </c>
       <c r="B5"/>
       <c r="C5">
-        <v>369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -531,27 +528,21 @@
         <v>6</v>
       </c>
       <c r="B6"/>
-      <c r="C6">
-        <v>20</v>
-      </c>
+      <c r="C6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7"/>
-      <c r="C7">
-        <v>4.6</v>
-      </c>
+      <c r="C7"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8"/>
-      <c r="C8">
-        <v>1</v>
-      </c>
+      <c r="C8"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
@@ -571,426 +562,6 @@
       </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>369</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>16.97</v>
-      </c>
-      <c r="E11" s="6">
-        <v>16.97</v>
-      </c>
-      <c r="F11" s="6">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6">
-        <v>369</v>
-      </c>
-      <c r="C12" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D12" s="6">
-        <v>16.97</v>
-      </c>
-      <c r="E12" s="6">
-        <v>35.42</v>
-      </c>
-      <c r="F12" s="6">
-        <v>350.55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6">
-        <v>350.55</v>
-      </c>
-      <c r="C13" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D13" s="6">
-        <v>16.13</v>
-      </c>
-      <c r="E13" s="6">
-        <v>34.58</v>
-      </c>
-      <c r="F13" s="6">
-        <v>332.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6">
-        <v>332.1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D14" s="6">
-        <v>15.28</v>
-      </c>
-      <c r="E14" s="6">
-        <v>33.73</v>
-      </c>
-      <c r="F14" s="6">
-        <v>313.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6">
-        <v>313.65</v>
-      </c>
-      <c r="C15" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D15" s="6">
-        <v>14.43</v>
-      </c>
-      <c r="E15" s="6">
-        <v>32.88</v>
-      </c>
-      <c r="F15" s="6">
-        <v>295.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6">
-        <v>295.2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D16" s="6">
-        <v>13.58</v>
-      </c>
-      <c r="E16" s="6">
-        <v>32.03</v>
-      </c>
-      <c r="F16" s="6">
-        <v>276.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6">
-        <v>276.75</v>
-      </c>
-      <c r="C17" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D17" s="6">
-        <v>12.73</v>
-      </c>
-      <c r="E17" s="6">
-        <v>31.18</v>
-      </c>
-      <c r="F17" s="6">
-        <v>258.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6">
-        <v>258.3</v>
-      </c>
-      <c r="C18" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D18" s="6">
-        <v>11.88</v>
-      </c>
-      <c r="E18" s="6">
-        <v>30.33</v>
-      </c>
-      <c r="F18" s="6">
-        <v>239.85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6">
-        <v>239.85</v>
-      </c>
-      <c r="C19" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D19" s="6">
-        <v>11.03</v>
-      </c>
-      <c r="E19" s="6">
-        <v>29.48</v>
-      </c>
-      <c r="F19" s="6">
-        <v>221.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6">
-        <v>221.4</v>
-      </c>
-      <c r="C20" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D20" s="6">
-        <v>10.18</v>
-      </c>
-      <c r="E20" s="6">
-        <v>28.63</v>
-      </c>
-      <c r="F20" s="6">
-        <v>202.95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6">
-        <v>11</v>
-      </c>
-      <c r="B21" s="6">
-        <v>202.95</v>
-      </c>
-      <c r="C21" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D21" s="6">
-        <v>9.34</v>
-      </c>
-      <c r="E21" s="6">
-        <v>27.79</v>
-      </c>
-      <c r="F21" s="6">
-        <v>184.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6">
-        <v>184.5</v>
-      </c>
-      <c r="C22" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D22" s="6">
-        <v>8.49</v>
-      </c>
-      <c r="E22" s="6">
-        <v>26.94</v>
-      </c>
-      <c r="F22" s="6">
-        <v>166.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6">
-        <v>166.05</v>
-      </c>
-      <c r="C23" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7.64</v>
-      </c>
-      <c r="E23" s="6">
-        <v>26.09</v>
-      </c>
-      <c r="F23" s="6">
-        <v>147.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6">
-        <v>14</v>
-      </c>
-      <c r="B24" s="6">
-        <v>147.6</v>
-      </c>
-      <c r="C24" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D24" s="6">
-        <v>6.79</v>
-      </c>
-      <c r="E24" s="6">
-        <v>25.24</v>
-      </c>
-      <c r="F24" s="6">
-        <v>129.15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6">
-        <v>15</v>
-      </c>
-      <c r="B25" s="6">
-        <v>129.15</v>
-      </c>
-      <c r="C25" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D25" s="6">
-        <v>5.94</v>
-      </c>
-      <c r="E25" s="6">
-        <v>24.39</v>
-      </c>
-      <c r="F25" s="6">
-        <v>110.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="6">
-        <v>16</v>
-      </c>
-      <c r="B26" s="6">
-        <v>110.7</v>
-      </c>
-      <c r="C26" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D26" s="6">
-        <v>5.09</v>
-      </c>
-      <c r="E26" s="6">
-        <v>23.54</v>
-      </c>
-      <c r="F26" s="6">
-        <v>92.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6">
-        <v>17</v>
-      </c>
-      <c r="B27" s="6">
-        <v>92.25</v>
-      </c>
-      <c r="C27" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D27" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E27" s="6">
-        <v>22.69</v>
-      </c>
-      <c r="F27" s="6">
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="6">
-        <v>18</v>
-      </c>
-      <c r="B28" s="6">
-        <v>73.8</v>
-      </c>
-      <c r="C28" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D28" s="6">
-        <v>3.39</v>
-      </c>
-      <c r="E28" s="6">
-        <v>21.84</v>
-      </c>
-      <c r="F28" s="6">
-        <v>55.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6">
-        <v>19</v>
-      </c>
-      <c r="B29" s="6">
-        <v>55.35</v>
-      </c>
-      <c r="C29" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2.55</v>
-      </c>
-      <c r="E29" s="6">
-        <v>21</v>
-      </c>
-      <c r="F29" s="6">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6">
-        <v>20</v>
-      </c>
-      <c r="B30" s="6">
-        <v>36.9</v>
-      </c>
-      <c r="C30" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="E30" s="6">
-        <v>20.15</v>
-      </c>
-      <c r="F30" s="6">
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6">
-        <v>21</v>
-      </c>
-      <c r="B31" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="C31" s="6">
-        <v>18.45</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="E31" s="6">
-        <v>19.3</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
